--- a/analysis/nutritionToolbox/inputData/demoFoodDescriptionEmpty.xlsx
+++ b/analysis/nutritionToolbox/inputData/demoFoodDescriptionEmpty.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nuigalwayie.sharepoint.com/sites/Group_MSP/Shared Documents/Projects/ViennaDiet/submissionNT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="8_{ABAFB0B2-D918-4592-84EE-CF9033202EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAA76852-2DE0-457E-B452-20EDC607EB54}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="8_{ABAFB0B2-D918-4592-84EE-CF9033202EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46771F4C-CEF5-471B-94C3-61278FC7080A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{48293E23-4C81-45F4-904E-74EA50084467}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" xr2:uid="{48293E23-4C81-45F4-904E-74EA50084467}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>VMHFoods</t>
   </si>
   <si>
-    <t>WeightEaten (g)</t>
-  </si>
-  <si>
     <t>Alcohol(g)</t>
   </si>
   <si>
@@ -159,6 +156,9 @@
   </si>
   <si>
     <t>TotalFibre(g)</t>
+  </si>
+  <si>
+    <t>ReferenceWeight(g)</t>
   </si>
 </sst>
 </file>
@@ -548,18 +548,18 @@
   <dimension ref="A1:Q175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="4" max="4" width="85" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.54296875" customWidth="1"/>
+    <col min="10" max="10" width="16.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -573,36 +573,36 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="A2" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
       </c>
       <c r="E2">
         <v>150</v>
@@ -633,9 +633,9 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>100</v>
@@ -663,9 +663,9 @@
       </c>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>140</v>
@@ -693,9 +693,9 @@
       </c>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>20</v>
@@ -723,9 +723,9 @@
       </c>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>50</v>
@@ -753,9 +753,9 @@
       </c>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>50</v>
@@ -783,9 +783,9 @@
       </c>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -813,9 +813,9 @@
       </c>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>50</v>
@@ -843,9 +843,9 @@
       </c>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>35</v>
@@ -873,9 +873,9 @@
       </c>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>200</v>
@@ -903,9 +903,9 @@
       </c>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -933,9 +933,9 @@
       </c>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>21</v>
@@ -963,9 +963,9 @@
       </c>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14">
         <v>500</v>
@@ -993,9 +993,9 @@
       </c>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>180</v>
@@ -1023,9 +1023,9 @@
       </c>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>200</v>
@@ -1053,9 +1053,9 @@
       </c>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17">
         <v>20</v>
@@ -1083,9 +1083,9 @@
       </c>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <v>50</v>
@@ -1113,9 +1113,9 @@
       </c>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19">
         <v>30</v>
@@ -1143,9 +1143,9 @@
       </c>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E20">
         <v>30</v>
@@ -1173,9 +1173,9 @@
       </c>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21">
         <v>40</v>
@@ -1203,9 +1203,9 @@
       </c>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1233,9 +1233,9 @@
       </c>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E23">
         <v>85</v>
@@ -1263,9 +1263,9 @@
       </c>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E24">
         <v>1110</v>
@@ -1293,9 +1293,9 @@
       </c>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E25">
         <v>100</v>
@@ -1323,9 +1323,9 @@
       </c>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E26">
         <v>20</v>
@@ -1353,9 +1353,9 @@
       </c>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E27">
         <v>25</v>
@@ -1383,9 +1383,9 @@
       </c>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E28">
         <v>100</v>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="O28" s="2"/>
     </row>
-    <row r="175" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="4:4" x14ac:dyDescent="0.75">
       <c r="D175" s="1"/>
     </row>
   </sheetData>
@@ -1423,27 +1423,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="115d27ae-6a50-4eec-a8c0-aa0138fe553c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c759ece7-115b-4d09-a992-0736880850b1" xsi:nil="true"/>
-    <Keyword xmlns="115d27ae-6a50-4eec-a8c0-aa0138fe553c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D951DA713A5BE4DB914422C145C765D" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="187661b5ba509de40c852abd4410bd3b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="115d27ae-6a50-4eec-a8c0-aa0138fe553c" xmlns:ns3="c759ece7-115b-4d09-a992-0736880850b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f6e787b82b781108b21eaa2fc08711e2" ns2:_="" ns3:_="">
     <xsd:import namespace="115d27ae-6a50-4eec-a8c0-aa0138fe553c"/>
@@ -1706,10 +1685,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="115d27ae-6a50-4eec-a8c0-aa0138fe553c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c759ece7-115b-4d09-a992-0736880850b1" xsi:nil="true"/>
+    <Keyword xmlns="115d27ae-6a50-4eec-a8c0-aa0138fe553c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13403E01-D368-4EE6-B11B-3FFF8FEEC454}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12952AFB-A3A6-4424-B2ED-EC180F38BF7F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="115d27ae-6a50-4eec-a8c0-aa0138fe553c"/>
+    <ds:schemaRef ds:uri="c759ece7-115b-4d09-a992-0736880850b1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1726,20 +1737,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12952AFB-A3A6-4424-B2ED-EC180F38BF7F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13403E01-D368-4EE6-B11B-3FFF8FEEC454}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="115d27ae-6a50-4eec-a8c0-aa0138fe553c"/>
-    <ds:schemaRef ds:uri="c759ece7-115b-4d09-a992-0736880850b1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>